--- a/Models/КРС/сравнение моделей.xlsx
+++ b/Models/КРС/сравнение моделей.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Madi\ИВЦ БНС\Nowcasting\github 2805\ICC\Models\КРС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A701E63-85F4-4460-A9DD-9C2E9F2CBCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F579398-F554-4C52-A3CB-247FACF09B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>Регион</t>
   </si>
@@ -471,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1235,4 +1236,1039 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0F382F-4494-4A9B-B73F-37CADEB1750B}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>348.56</v>
+      </c>
+      <c r="D1" s="2">
+        <v>308.18</v>
+      </c>
+      <c r="E1" s="2">
+        <v>11.38</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2">
+        <v>348.56</v>
+      </c>
+      <c r="J1" s="2">
+        <v>308.18</v>
+      </c>
+      <c r="K1" s="2">
+        <v>11.38</v>
+      </c>
+      <c r="M1" s="2">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2">
+        <v>348.02</v>
+      </c>
+      <c r="P1" s="2">
+        <v>328.23</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>11.16</v>
+      </c>
+      <c r="S1">
+        <f>IF(AND(Q1&lt;K1,Q1&lt;E1),1,IF(OR(Q1&lt;K1,Q1&lt;E1),0.5,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>867.92</v>
+      </c>
+      <c r="D2" s="2">
+        <v>746.8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>867.92</v>
+      </c>
+      <c r="J2" s="2">
+        <v>746.8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>746.59</v>
+      </c>
+      <c r="P2" s="2">
+        <v>682.57</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>13.06</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S20" si="0">IF(AND(Q2&lt;K2,Q2&lt;E2),1,IF(OR(Q2&lt;K2,Q2&lt;E2),0.5,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4097.33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3743.97</v>
+      </c>
+      <c r="E3" s="2">
+        <v>95.35</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4097.33</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3743.97</v>
+      </c>
+      <c r="K3" s="2">
+        <v>95.35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2458.44</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2115.42</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>29.88</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>305.92</v>
+      </c>
+      <c r="D4" s="2">
+        <v>269.17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18.16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>305.92</v>
+      </c>
+      <c r="J4" s="2">
+        <v>269.17</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18.16</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>345.15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>316.49</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3742.48</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3410.64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>111.41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3742.48</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3410.64</v>
+      </c>
+      <c r="K5" s="2">
+        <v>111.41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1381.16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1302.79</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>35.06</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.42</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11.62</v>
+      </c>
+      <c r="E6" s="2">
+        <v>795.82</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>13.42</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11.62</v>
+      </c>
+      <c r="K6" s="2">
+        <v>795.82</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>89.48</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32.24</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K7" s="2">
+        <v>32.24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>416.82</v>
+      </c>
+      <c r="D8" s="2">
+        <v>344.15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>69.97</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <v>416.82</v>
+      </c>
+      <c r="J8" s="2">
+        <v>344.15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>69.97</v>
+      </c>
+      <c r="M8" s="2">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="2">
+        <v>267.62</v>
+      </c>
+      <c r="P8" s="2">
+        <v>228.59</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>46.33</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>690.9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>566.08000000000004</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13.11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>690.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>566.08000000000004</v>
+      </c>
+      <c r="K9" s="2">
+        <v>13.11</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2">
+        <v>690.85</v>
+      </c>
+      <c r="P9" s="2">
+        <v>512.64</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.74</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>234.01</v>
+      </c>
+      <c r="D10" s="2">
+        <v>201.49</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2">
+        <v>234.01</v>
+      </c>
+      <c r="J10" s="2">
+        <v>201.49</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="2">
+        <v>272.98</v>
+      </c>
+      <c r="P10" s="2">
+        <v>227.11</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1464.37</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1381.81</v>
+      </c>
+      <c r="E11" s="2">
+        <v>54.83</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1464.37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1381.81</v>
+      </c>
+      <c r="K11" s="2">
+        <v>54.83</v>
+      </c>
+      <c r="M11" s="2">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2">
+        <v>854.09</v>
+      </c>
+      <c r="P11" s="2">
+        <v>776.11</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>22.68</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1046.3900000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>879.06</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30.88</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1046.3900000000001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>879.06</v>
+      </c>
+      <c r="K12" s="2">
+        <v>30.88</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1064.95</v>
+      </c>
+      <c r="P12" s="2">
+        <v>814.28</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>20.16</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>121.47</v>
+      </c>
+      <c r="D13" s="2">
+        <v>99.92</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>121.47</v>
+      </c>
+      <c r="J13" s="2">
+        <v>99.92</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="2">
+        <v>117.24</v>
+      </c>
+      <c r="P13" s="2">
+        <v>107.67</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>6.77</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>52.15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43.26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>33.15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2">
+        <v>52.15</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43.26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>33.15</v>
+      </c>
+      <c r="M14" s="2">
+        <v>13</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="2">
+        <v>80.64</v>
+      </c>
+      <c r="P14" s="2">
+        <v>63.09</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10282.700000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8950.98</v>
+      </c>
+      <c r="E15" s="2">
+        <v>319.44</v>
+      </c>
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2669.34</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2443.63</v>
+      </c>
+      <c r="K15" s="2">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="M15" s="2">
+        <v>14</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1897.54</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1540.82</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>37.86</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5508.74</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4594.6000000000004</v>
+      </c>
+      <c r="E16" s="2">
+        <v>153.65</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3318.22</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2882.88</v>
+      </c>
+      <c r="K16" s="2">
+        <v>96.46</v>
+      </c>
+      <c r="M16" s="2">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3169.05</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2779.67</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>62.62</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2797.36</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2427.2199999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>872.36</v>
+      </c>
+      <c r="G17" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1074.08</v>
+      </c>
+      <c r="J17" s="2">
+        <v>916.29</v>
+      </c>
+      <c r="K17" s="2">
+        <v>254.17</v>
+      </c>
+      <c r="M17" s="2">
+        <v>16</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="2">
+        <v>524.03</v>
+      </c>
+      <c r="P17" s="2">
+        <v>406.73</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>94.19</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>663.86</v>
+      </c>
+      <c r="D18" s="2">
+        <v>562.45000000000005</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14.72</v>
+      </c>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2">
+        <v>663.86</v>
+      </c>
+      <c r="J18" s="2">
+        <v>562.45000000000005</v>
+      </c>
+      <c r="K18" s="2">
+        <v>14.72</v>
+      </c>
+      <c r="M18" s="2">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="2">
+        <v>684.38</v>
+      </c>
+      <c r="P18" s="2">
+        <v>591.9</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>14.39</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>854</v>
+      </c>
+      <c r="D19" s="2">
+        <v>697.45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>27.79</v>
+      </c>
+      <c r="G19" s="2">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2">
+        <v>854</v>
+      </c>
+      <c r="J19" s="2">
+        <v>697.45</v>
+      </c>
+      <c r="K19" s="2">
+        <v>27.79</v>
+      </c>
+      <c r="M19" s="2">
+        <v>18</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2">
+        <v>333.59</v>
+      </c>
+      <c r="P19" s="2">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>11.59</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3810.17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2876.82</v>
+      </c>
+      <c r="E20" s="2">
+        <v>22.62</v>
+      </c>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3810.17</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2876.82</v>
+      </c>
+      <c r="K20" s="2">
+        <v>22.62</v>
+      </c>
+      <c r="M20" s="2">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4168.12</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2975.2</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>21.88</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>